--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionATMVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionATMVolsQuotes.xlsx
@@ -11,9 +11,6 @@
     <sheet name="IcapQuotes" sheetId="4" r:id="rId2"/>
     <sheet name="BgcpQuotes" sheetId="7" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$10</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>10Y</t>
   </si>
@@ -142,6 +139,9 @@
   <si>
     <t>_BGCP</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -678,22 +678,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -988,7 +972,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="2" customWidth="1"/>
@@ -998,14 +982,14 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1"/>
-    <row r="2" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE, Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="15.75">
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
         <v>21</v>
       </c>
@@ -1013,13 +997,13 @@
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1">
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5" s="1" customFormat="1">
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
         <v>20</v>
@@ -1027,7 +1011,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" s="1" customFormat="1">
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
@@ -1037,7 +1021,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1">
+    <row r="7" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
         <v>22</v>
@@ -1047,7 +1031,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1">
+    <row r="8" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
@@ -1057,18 +1041,17 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1">
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1">
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -1078,14 +1061,14 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1"/>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="15.75">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>27</v>
       </c>
@@ -1093,13 +1076,13 @@
       <c r="D13" s="47"/>
       <c r="E13" s="48"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1">
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1">
+    <row r="15" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
         <v>28</v>
@@ -1109,7 +1092,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1">
+    <row r="16" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1102,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1">
+    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
@@ -1129,43 +1112,43 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="18" spans="2:5" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1"/>
-    <row r="20" spans="2:5" s="1" customFormat="1"/>
-    <row r="21" spans="2:5" s="1" customFormat="1"/>
-    <row r="22" spans="2:5" s="1" customFormat="1"/>
-    <row r="23" spans="2:5" s="1" customFormat="1"/>
-    <row r="24" spans="2:5" s="1" customFormat="1"/>
-    <row r="25" spans="2:5" s="1" customFormat="1"/>
-    <row r="26" spans="2:5" s="1" customFormat="1"/>
-    <row r="27" spans="2:5" s="1" customFormat="1"/>
-    <row r="28" spans="2:5" s="1" customFormat="1"/>
-    <row r="29" spans="2:5" s="1" customFormat="1"/>
-    <row r="30" spans="2:5" s="1" customFormat="1"/>
-    <row r="31" spans="2:5" s="1" customFormat="1"/>
-    <row r="32" spans="2:5" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
+    <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:E3"/>
@@ -1192,7 +1175,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="14" bestFit="1" customWidth="1"/>
@@ -1202,7 +1185,7 @@
     <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1" s="41" t="s">
         <v>35</v>
       </c>
@@ -1210,10 +1193,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="43" t="s">
         <v>26</v>
@@ -1222,20 +1205,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C4" s="40" t="str">
         <f>Currency&amp;"_010_SwaptionATMVolsQuotes"&amp;D1&amp;".xml"</f>
         <v>EUR_010_SwaptionATMVolsQuotes_ICAP.xml</v>
       </c>
-      <c r="D4" s="45" t="e">
+      <c r="D4" s="45">
         <f>IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="40"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
@@ -1280,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1324,7 @@
         <v>EUR1Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1385,7 @@
         <v>EUR2Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1446,7 @@
         <v>EUR3Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>17</v>
       </c>
@@ -1524,7 +1507,7 @@
         <v>EUR6Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>18</v>
       </c>
@@ -1585,7 +1568,7 @@
         <v>EUR9Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1629,7 @@
         <v>EUR1Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1690,7 @@
         <v>EUR18Mx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1751,7 @@
         <v>EUR2Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1812,7 @@
         <v>EUR3Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1873,7 @@
         <v>EUR4Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +1934,7 @@
         <v>EUR5Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +1995,7 @@
         <v>EUR6Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +2056,7 @@
         <v>EUR7Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
@@ -2134,7 +2117,7 @@
         <v>EUR8Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -2195,7 +2178,7 @@
         <v>EUR9Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2239,7 @@
         <v>EUR10Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2300,7 @@
         <v>EUR15Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2361,7 @@
         <v>EUR20Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2422,7 @@
         <v>EUR25Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2483,7 @@
         <v>EUR30Yx30Y_ICAP_Quote#0000</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
         <v>14</v>
       </c>
@@ -2561,7 +2544,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>15</v>
       </c>
@@ -2622,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2666,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2727,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>18</v>
       </c>
@@ -2805,7 +2788,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>5</v>
       </c>
@@ -2866,7 +2849,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>34</v>
       </c>
@@ -2927,7 +2910,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +2971,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3032,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>8</v>
       </c>
@@ -3110,7 +3093,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3154,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>10</v>
       </c>
@@ -3232,7 +3215,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>12</v>
       </c>
@@ -3354,7 +3337,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>13</v>
       </c>
@@ -3415,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3459,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3520,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>2</v>
       </c>
@@ -3598,7 +3581,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3720,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="14" bestFit="1" customWidth="1"/>
@@ -3747,7 +3730,7 @@
     <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1" s="41" t="s">
         <v>35</v>
       </c>
@@ -3755,10 +3738,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="43" t="s">
         <v>26</v>
@@ -3767,20 +3750,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C4" s="40" t="str">
         <f>Currency&amp;"_010_SwaptionATMVolsQuotes"&amp;D1&amp;".xml"</f>
         <v>EUR_010_SwaptionATMVolsQuotes_BGCP.xml</v>
       </c>
-      <c r="D4" s="45" t="e">
+      <c r="D4" s="45">
         <f>IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="40"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
@@ -3825,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +3869,7 @@
         <v>EUR1Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
@@ -3947,7 +3930,7 @@
         <v>EUR2Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>16</v>
       </c>
@@ -4008,7 +3991,7 @@
         <v>EUR3Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>17</v>
       </c>
@@ -4069,7 +4052,7 @@
         <v>EUR6Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>18</v>
       </c>
@@ -4130,7 +4113,7 @@
         <v>EUR9Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="38" t="s">
         <v>5</v>
       </c>
@@ -4191,7 +4174,7 @@
         <v>EUR1Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
@@ -4252,7 +4235,7 @@
         <v>EUR18Mx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="38" t="s">
         <v>6</v>
       </c>
@@ -4313,7 +4296,7 @@
         <v>EUR2Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="38" t="s">
         <v>7</v>
       </c>
@@ -4374,7 +4357,7 @@
         <v>EUR3Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4418,7 @@
         <v>EUR4Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4479,7 @@
         <v>EUR5Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
@@ -4557,7 +4540,7 @@
         <v>EUR6Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="38" t="s">
         <v>11</v>
       </c>
@@ -4618,7 +4601,7 @@
         <v>EUR7Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
@@ -4679,7 +4662,7 @@
         <v>EUR8Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="38" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4723,7 @@
         <v>EUR9Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4784,7 @@
         <v>EUR10Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="38" t="s">
         <v>1</v>
       </c>
@@ -4862,7 +4845,7 @@
         <v>EUR15Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="38" t="s">
         <v>2</v>
       </c>
@@ -4923,7 +4906,7 @@
         <v>EUR20Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="38" t="s">
         <v>3</v>
       </c>
@@ -4984,7 +4967,7 @@
         <v>EUR25Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>4</v>
       </c>
@@ -5045,7 +5028,7 @@
         <v>EUR30Yx30Y_BGCP_Quote#0000</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
         <v>14</v>
       </c>
@@ -5106,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>15</v>
       </c>
@@ -5167,7 +5150,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>16</v>
       </c>
@@ -5228,7 +5211,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>17</v>
       </c>
@@ -5289,7 +5272,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>18</v>
       </c>
@@ -5350,7 +5333,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>5</v>
       </c>
@@ -5411,7 +5394,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>34</v>
       </c>
@@ -5472,7 +5455,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>6</v>
       </c>
@@ -5533,7 +5516,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5577,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>8</v>
       </c>
@@ -5655,7 +5638,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>10</v>
       </c>
@@ -5777,7 +5760,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5821,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>12</v>
       </c>
@@ -5899,7 +5882,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>13</v>
       </c>
@@ -5960,7 +5943,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>0</v>
       </c>
@@ -6021,7 +6004,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>1</v>
       </c>
@@ -6082,7 +6065,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>2</v>
       </c>
@@ -6143,7 +6126,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>3</v>
       </c>
@@ -6204,7 +6187,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="s">
         <v>4</v>
       </c>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionATMVolsQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_SwaptionATMVolsQuotes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>10Y</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>_BGCP</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1043,9 @@
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1210,9 +1208,9 @@
         <f>Currency&amp;"_010_SwaptionATMVolsQuotes"&amp;D1&amp;".xml"</f>
         <v>EUR_010_SwaptionATMVolsQuotes_ICAP.xml</v>
       </c>
-      <c r="D4" s="45">
-        <f>IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
-        <v>280</v>
+      <c r="D4" s="45" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -3755,9 +3753,9 @@
         <f>Currency&amp;"_010_SwaptionATMVolsQuotes"&amp;D1&amp;".xml"</f>
         <v>EUR_010_SwaptionATMVolsQuotes_BGCP.xml</v>
       </c>
-      <c r="D4" s="45">
-        <f>IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
-        <v>280</v>
+      <c r="D4" s="45" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C7:P26,SerializationPath&amp;C4,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
